--- a/data/trans_camb/P24_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_5_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-7,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-16,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,95</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-5,83</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,54</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 18,39</t>
+          <t>-8,76; 27,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 17,52</t>
+          <t>-10,41; 22,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 2,33</t>
+          <t>-23,13; 2,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 1,02</t>
+          <t>-19,72; 6,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 8,81</t>
+          <t>-32,98; 0,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 15,05</t>
+          <t>-19,38; 21,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 4,98</t>
+          <t>-22,96; 14,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 9,63</t>
+          <t>-29,21; 7,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 5,23</t>
+          <t>-19,02; 6,67</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,67; 14,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 2,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-22,52; 0,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>102,57%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>100,97%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-61,45%</t>
+          <t>-75,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,85%</t>
+          <t>-65,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>-51,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>-18,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-35,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>-25,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-37,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-46,94%</t>
         </is>
       </c>
     </row>
@@ -791,12 +860,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 724,03</t>
+          <t>-64,27; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 727,08</t>
+          <t>-74,74; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,24; 10,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,12; 39,97</t>
+          <t>-81,71; 10,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 63,04</t>
+          <t>-47,78; 92,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 33,25</t>
+          <t>-56,91; 62,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 63,74</t>
+          <t>-71,63; 38,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,12; 37,9</t>
+          <t>-65,35; 42,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-40,19; 97,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-69,78; 19,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-75,98; 9,3</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,74</t>
+          <t>-18,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-15,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-9,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-9,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 0,06</t>
+          <t>-51,06; -2,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 4,51</t>
+          <t>-46,62; 4,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 5,91</t>
+          <t>-45,04; 6,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 14,26</t>
+          <t>-49,81; 1,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 6,59</t>
+          <t>-15,59; 21,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 6,4</t>
+          <t>-24,31; 9,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 5,32</t>
+          <t>-24,84; 11,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 3,51</t>
+          <t>-17,74; 18,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 2,3</t>
+          <t>-25,0; 6,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 2,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-25,8; 5,04</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-27,37; 4,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-69,66%</t>
+          <t>-83,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-46,22%</t>
+          <t>-54,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-41,74%</t>
+          <t>-46,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,87%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,17%</t>
+          <t>-24,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,98%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,85%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-31,87%</t>
+          <t>-25,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-38,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-33,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-34,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,67</t>
+          <t>-100,0; -17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,5; 84,82</t>
+          <t>-100,0; 67,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,33; 93,09</t>
+          <t>-100,0; 85,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 68,37</t>
+          <t>-100,0; 37,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 33,22</t>
+          <t>-36,5; 99,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 33,77</t>
+          <t>-60,01; 44,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 39,8</t>
+          <t>-59,3; 51,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 26,22</t>
+          <t>-44,88; 82,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,13; 15,78</t>
+          <t>-65,08; 36,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-74,58; 15,48</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-68,09; 28,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-72,65; 24,39</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,43</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-3,99</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 2,81</t>
+          <t>-13,11; 4,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 3,67</t>
+          <t>-11,64; 7,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 7,67</t>
+          <t>-9,22; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 3,32</t>
+          <t>-10,25; 10,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 6,12</t>
+          <t>-15,69; 7,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 9,33</t>
+          <t>-14,51; 10,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 1,46</t>
+          <t>-13,32; 12,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 2,77</t>
+          <t>-14,33; 9,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 6,54</t>
+          <t>-13,08; 4,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 6,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 8,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 6,99</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>-41,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,28%</t>
+          <t>-18,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,7%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-27,56%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>-8,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>-21,13%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-10,75%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-9,76%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,65; 61,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,56; 89,9</t>
+          <t>-86,31; 234,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,36; 148,46</t>
+          <t>-76,33; 361,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,98; 15,65</t>
+          <t>-80,76; 359,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 31,07</t>
+          <t>-50,81; 41,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 47,49</t>
+          <t>-45,65; 57,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,57; 9,38</t>
+          <t>-41,11; 66,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 18,96</t>
+          <t>-44,23; 48,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 44,31</t>
+          <t>-53,99; 31,36</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-48,37; 41,36</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; 54,38</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-45,86; 53,62</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,08</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>19,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 4,81</t>
+          <t>-6,48; 11,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 6,83</t>
+          <t>-7,46; 11,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 3,46</t>
+          <t>-6,69; 9,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 7,64</t>
+          <t>-8,69; 9,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 19,68</t>
+          <t>-1,79; 19,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 11,71</t>
+          <t>6,84; 30,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 4,63</t>
+          <t>-6,4; 14,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 12,3</t>
+          <t>-1,13; 20,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 6,0</t>
+          <t>-2,18; 12,56</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 19,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 9,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 13,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,65%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>54,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>121,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>44,04%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>86,71%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>42,11%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 94,8</t>
+          <t>-54,23; 322,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 120,61</t>
+          <t>-59,62; 291,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,19; 62,25</t>
+          <t>-56,05; 291,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 49,39</t>
+          <t>-72,64; 226,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 128,18</t>
+          <t>-10,5; 171,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 72,57</t>
+          <t>25,56; 275,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 39,02</t>
+          <t>-32,39; 140,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 96,47</t>
+          <t>-7,23; 188,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 48,09</t>
+          <t>-13,92; 137,68</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>18,33; 199,34</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-30,78; 109,91</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-11,63; 154,59</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>13,59</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 3,22</t>
+          <t>-7,19; 7,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 7,23</t>
+          <t>-5,53; 9,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 5,92</t>
+          <t>-5,99; 9,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 9,02</t>
+          <t>-5,93; 10,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 15,71</t>
+          <t>-8,95; 16,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 18,11</t>
+          <t>-1,18; 28,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 3,92</t>
+          <t>-4,46; 22,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 8,96</t>
+          <t>-3,61; 26,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 9,55</t>
+          <t>-4,4; 9,03</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 15,46</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 11,47</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 14,67</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-31,59%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>138,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>110,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>33,19%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>106,75%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>73,4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>96,08%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,29; 136,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 276,59</t>
+          <t>-81,1; 823,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,17; 196,53</t>
+          <t>-85,09; 669,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-56,14; 110,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 187,21</t>
+          <t>-68,51; 407,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 224,24</t>
+          <t>-24,28; 692,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 67,73</t>
+          <t>-40,15; 577,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 145,31</t>
+          <t>-38,86; 582,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 156,79</t>
+          <t>-51,21; 238,0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-11,81; 364,56</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-32,12; 286,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; 353,25</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,02</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,56</t>
+          <t>0,0; 14,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 8,85</t>
+          <t>0,0; 14,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 6,72</t>
+          <t>-8,09; 14,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 13,97</t>
+          <t>-5,49; 18,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,26</t>
+          <t>-8,16; 14,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 4,88</t>
+          <t>-7,17; 15,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 9,12</t>
+          <t>-3,32; 9,66</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 13,84</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 8,77</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 12,36</t>
         </is>
       </c>
     </row>
@@ -1828,37 +2182,52 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-19,98%</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>107,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>81,95%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>169,74%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>55,24%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>108,75%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +2255,47 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-86,39; 176,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-80,6; 139,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-72,76; 276,58</t>
+          <t>-59,45; 967,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-91,13; 156,86</t>
+          <t>-84,81; 769,64</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 154,03</t>
+          <t>-77,33; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-70,93; 251,49</t>
+          <t>-76,68; 818,29</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-41,7; 1167,43</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-75,66; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-51,19; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,12</t>
+          <t>-9,94; 2,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,06</t>
+          <t>-9,19; 4,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,93</t>
+          <t>-9,89; 2,71</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 1,58</t>
+          <t>-10,86; 1,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 5,33</t>
+          <t>-6,19; 5,53</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,59</t>
+          <t>-1,24; 10,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,2</t>
+          <t>-5,77; 5,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,97</t>
+          <t>-5,2; 6,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,23</t>
+          <t>-5,76; 3,0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 6,84</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 2,93</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 3,4</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>-21,3%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-29,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-17,73%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-7,08%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-59,96; 18,7</t>
+          <t>-64,79; 45,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 48,58</t>
+          <t>-60,15; 71,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-59,91; 15,05</t>
+          <t>-67,33; 44,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 8,15</t>
+          <t>-68,6; 27,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 28,63</t>
+          <t>-25,92; 29,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 29,2</t>
+          <t>-5,66; 57,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-34,08; 1,53</t>
+          <t>-23,77; 30,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 20,9</t>
+          <t>-21,4; 37,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 15,53</t>
+          <t>-30,69; 23,9</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 54,01</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 21,4</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-29,22; 26,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
